--- a/biology/Botanique/Perebea/Perebea.xlsx
+++ b/biology/Botanique/Perebea/Perebea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Perebea est un genre de plantes à fleurs de la famille des Moraceae, comprenant 10 à 36 espèces néotropicales, et dont l'espèce type est Perebea guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PEREBEA. (Tabula 361.)
 FEMINEUS FLOS. 
 Involucrum carnoſum, monophyllum, ad oras dentatum, ſubtùs ſquamoſum, multiflorum. 
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (26 janvier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (26 janvier 2022) :
 Perebea angustifolia (Poepp. &amp; Endl.) C.C.Berg
 Perebea guianensis Aubl.
 Perebea humilis C.C.Berg
@@ -563,7 +579,7 @@
 Perebea rubra (Trécul) C.C.Berg
 Perebea tessmannii Mildbr.
 Perebea xanthochyma H.Karst.
-Selon World Flora Online (WFO)       (26 janvier 2022)[4] :
+Selon World Flora Online (WFO)       (26 janvier 2022) :
 Perebea angustifolia (Poepp. &amp; Endl.) C.C.Berg
 Perebea guianensis Aubl.
 Perebea hispidula Standl.
@@ -574,7 +590,7 @@
 Perebea rubra (Trécul) C.C. Berg
 Perebea tessmannii Mildbr.
 Perebea xanthochyma H.Karst.
-Selon Tropicos                                           (26 janvier 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 janvier 2022) (Attention liste brute contenant possiblement des synonymes) :
 Perebea acanthogyne Ducke, 1932
 Perebea angustifolia (Poepp. &amp; Endl.) C.C. Berg, 1969
 Perebea australis (Hemsl.) J.F. Macbr., 1931
